--- a/CATS/Places_UK.xlsx
+++ b/CATS/Places_UK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1891215_kcl_ac_uk/Documents/Year 3/Dissertation/Collecting Own Tweets/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janetvanbilsen/Documents/Twitter-Mining-Raspberry_Pi/CATS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C9A0C4-31DE-5649-92C0-612339785BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD28B0EF-4035-AE4C-A16B-F19AD98C0F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{BE83CDBA-B4E8-CD45-A533-1560E0F405BC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="1002">
   <si>
     <t>London</t>
   </si>
@@ -3021,6 +3021,24 @@
   </si>
   <si>
     <t>Place</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
   </si>
 </sst>
 </file>
@@ -3067,9 +3085,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -3386,10 +3405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBBBF18-05E3-AA45-8B98-25290F6FC308}">
-  <dimension ref="A1:A1010"/>
+  <dimension ref="A1:A1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A998" workbookViewId="0">
+      <selection activeCell="A1018" sqref="A1018"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3465,12 +3484,12 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" ht="20">
       <c r="A17" s="2" t="s">
@@ -4533,12 +4552,12 @@
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="3"/>
+      <c r="A230" s="4"/>
     </row>
     <row r="231" spans="1:1" ht="20">
       <c r="A231" s="2" t="s">
@@ -5386,12 +5405,12 @@
       </c>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="3" t="s">
+      <c r="A400" s="4" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="3"/>
+      <c r="A401" s="4"/>
     </row>
     <row r="402" spans="1:1" ht="20">
       <c r="A402" s="2" t="s">
@@ -6139,12 +6158,12 @@
       </c>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="3" t="s">
+      <c r="A551" s="4" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="3"/>
+      <c r="A552" s="4"/>
     </row>
     <row r="553" spans="1:1" ht="20">
       <c r="A553" s="2" t="s">
@@ -8434,6 +8453,36 @@
     <row r="1010" spans="1:1" ht="20">
       <c r="A1010" s="2" t="s">
         <v>994</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" ht="20">
+      <c r="A1012" s="3" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" ht="20">
+      <c r="A1013" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" ht="20">
+      <c r="A1014" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" ht="20">
+      <c r="A1015" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" ht="20">
+      <c r="A1016" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" ht="20">
+      <c r="A1017" s="3" t="s">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
